--- a/تحليل بيانات الحج والعمرة/تصاريح تطبيق نُسُك/عدد تصاريح تطبيق نُسُك ١٤٤٤هـ.xlsx
+++ b/تحليل بيانات الحج والعمرة/تصاريح تطبيق نُسُك/عدد تصاريح تطبيق نُسُك ١٤٤٤هـ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanimouneer/Desktop/my_projects/تحليل بيانات الحج والعمرة/تصاريح تطبيق نُسُك/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AD6BC2-D429-0A49-BBBF-505425AE66AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034499CE-BF0B-4D41-901A-C213E51DEB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="أعداد التصاريح من تطبيق نسك 144" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId6"/>
-    <pivotCache cacheId="42" r:id="rId7"/>
+    <pivotCache cacheId="46" r:id="rId6"/>
+    <pivotCache cacheId="48" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5226" uniqueCount="376">
   <si>
     <t>اليوم</t>
   </si>
@@ -1378,19 +1378,22 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1399,24 +1402,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -2001,6 +1986,630 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[عدد تصاريح تطبيق نُسُك ١٤٤٤هـ.xlsx]تحليل عام!PivotTable15</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ar-SA"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ar-SA"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ar-SA"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:shade val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:tint val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'تحليل عام'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>الإجمالي</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F56D-024B-9F89-F9616E5F4E81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F56D-024B-9F89-F9616E5F4E81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F56D-024B-9F89-F9616E5F4E81}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ar-SA"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'تحليل عام'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>روضة رجال</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>روضة نساء</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>عمرة</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'تحليل عام'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4964037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4930131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21834898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F56D-024B-9F89-F9616E5F4E81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ar-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ar-SA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[عدد تصاريح تطبيق نُسُك ١٤٤٤هـ.xlsx]تحليل عام!PivotTable16</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
@@ -2269,7 +2878,9 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent3">
+              <a:shade val="76000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -2283,7 +2894,9 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="77000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -2548,7 +3161,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -2753,7 +3366,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3197,7 +3812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -3679,7 +4294,9 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent3">
+              <a:shade val="76000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -3731,7 +4348,9 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="77000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -4068,7 +4687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -4273,7 +4892,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4578,7 +5199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -4789,7 +5410,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5204,7 +5827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -5409,7 +6032,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -6673,6 +7298,457 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[عدد تصاريح تطبيق نُسُك ١٤٤٤هـ.xlsx]تحليل عام!PivotTable14</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ar-SA"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'تحليل عام'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>الإجمالي</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'تحليل عام'!$A$40:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'تحليل عام'!$B$40:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2426457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1847215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1647892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2294234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2429376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2501259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2655260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3003168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7479572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2813663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1596610</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1034360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E55F-3A49-BF69-A33BFDBACE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="394840144"/>
+        <c:axId val="394607408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="394840144"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394607408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394607408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ar-SA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394840144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ar-SA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ar-SA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ar-SA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[عدد تصاريح تطبيق نُسُك ١٤٤٤هـ.xlsx]تصاريح العمرة !PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
@@ -7236,7 +8312,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -7660,7 +8736,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -7732,16 +8808,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ar-SA"/>
@@ -7857,7 +8930,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -8263,7 +9336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -8343,16 +9416,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ar-SA"/>
@@ -8869,7 +9939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ar-SA"/>
@@ -9423,626 +10493,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ar-SA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="5"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[عدد تصاريح تطبيق نُسُك ١٤٤٤هـ.xlsx]تحليل عام!PivotTable15</c:name>
-    <c:fmtId val="5"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ar-SA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ar-SA"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ar-SA"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ar-SA"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'تحليل عام'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>الإجمالي</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F56D-024B-9F89-F9616E5F4E81}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F56D-024B-9F89-F9616E5F4E81}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F56D-024B-9F89-F9616E5F4E81}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ar-SA"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'تحليل عام'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>روضة رجال</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>روضة نساء</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>عمرة</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'تحليل عام'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4964037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4930131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21834898</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F56D-024B-9F89-F9616E5F4E81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="360"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ar-SA"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ar-SA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10114,6 +10564,12 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
 </cs:colorStyle>
@@ -10400,8 +10856,42 @@
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -11441,509 +11931,6 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12462,7 +12449,1029 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12967,7 +13976,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13470,7 +14479,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15515,6 +16524,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16019,7 +17531,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16506,509 +18018,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -17545,7 +18554,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17602,7 +18611,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -17653,13 +18662,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -17670,19 +18672,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -17720,7 +18715,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -17763,23 +18758,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -17884,8 +18878,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -18017,20 +19011,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -18168,6 +19161,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="مخطط 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6188AF-1D67-D216-5F5B-18B1BAE98D1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18647,8 +19676,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>109484</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="نوع التصريح">
@@ -18671,7 +19700,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18725,8 +19754,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>153277</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="الجنس">
@@ -18749,7 +19778,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -43312,31 +44341,36 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{519BBE3F-0841-B64B-9A5F-B4DD2D80012D}" name="PivotTable15" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D43ADCB2-F77B-1142-BCB2-DDB816B8A3D0}" name="PivotTable14" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A39:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -43345,6 +44379,33 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -43356,93 +44417,12 @@
   <dataFields count="1">
     <dataField name="مجموع من عدد التصاريح من نسك" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="8">
+  <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -43461,7 +44441,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C6B610C-DB06-424B-B2A0-46EC991ACB94}" name="PivotTable10" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C6B610C-DB06-424B-B2A0-46EC991ACB94}" name="PivotTable10" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A23:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -43580,7 +44560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2C2BB7E-B979-864D-BABC-B5D3A4BBAD06}" name="PivotTable9" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2C2BB7E-B979-864D-BABC-B5D3A4BBAD06}" name="PivotTable9" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -43627,14 +44607,14 @@
     <dataField name="مجموع من عدد التصاريح من نسك" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -43722,8 +44702,74 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{188DC4F9-03B6-C945-B35F-F02C8B7D47A3}" name="PivotTable13" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A68:C69" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="أعلى عدد تصاريح زيارة للروضة من نسك" fld="0" subtotal="max" baseField="0" baseItem="0"/>
+    <dataField name="أقل عدد تصاريح زيارة للروضة من نسك" fld="0" subtotal="min" baseField="0" baseItem="0"/>
+    <dataField name="متوسط عدد تصاريح زيارة للروضة من نسك" fld="0" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30EE7065-9D7F-464F-8B1F-822679ADDD08}" name="PivotTable16" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30EE7065-9D7F-464F-8B1F-822679ADDD08}" name="PivotTable16" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A9:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -43923,7 +44969,156 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33D5915F-94D3-1547-B8F5-A2AD79B5F098}" name="PivotTable8" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{519BBE3F-0841-B64B-9A5F-B4DD2D80012D}" name="PivotTable15" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="مجموع من عدد التصاريح من نسك" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33D5915F-94D3-1547-B8F5-A2AD79B5F098}" name="PivotTable8" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A39:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -43966,7 +45161,7 @@
     <dataField name="متوسط عدد تصاريح العمرة من نسك" fld="0" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -43988,8 +45183,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{304CC931-8915-8B42-9CF1-078C284BE02A}" name="PivotTable3" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{304CC931-8915-8B42-9CF1-078C284BE02A}" name="PivotTable3" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -44107,8 +45302,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADBC621B-5B03-304B-9771-766932575345}" name="PivotTable6" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADBC621B-5B03-304B-9771-766932575345}" name="PivotTable6" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A34" firstHeaderRow="0" firstDataRow="0" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="165" showAll="0"/>
@@ -44140,8 +45335,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86D03535-09C8-A74F-8DC3-16AE67D03602}" name="PivotTable5" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86D03535-09C8-A74F-8DC3-16AE67D03602}" name="PivotTable5" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A26:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -44254,74 +45449,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{188DC4F9-03B6-C945-B35F-F02C8B7D47A3}" name="PivotTable13" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A68:C69" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="أعلى عدد تصاريح زيارة للروضة من نسك" fld="0" subtotal="max" baseField="0" baseItem="0"/>
-    <dataField name="أقل عدد تصاريح زيارة للروضة من نسك" fld="0" subtotal="min" baseField="0" baseItem="0"/>
-    <dataField name="متوسط عدد تصاريح زيارة للروضة من نسك" fld="0" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{973D9500-557C-BF49-B6E4-D0AF632B2659}" name="PivotTable12" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{973D9500-557C-BF49-B6E4-D0AF632B2659}" name="PivotTable12" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A63:C64" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -44364,7 +45493,7 @@
     <dataField name="متوسط عدد تصاريح زيارة للروضة من نسك" fld="0" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -44387,7 +45516,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37C08065-1A59-9F46-8A46-9B227234D5A7}" name="PivotTable11" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37C08065-1A59-9F46-8A46-9B227234D5A7}" name="PivotTable11" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A43:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
@@ -44557,13 +45686,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD50E3AB-70E9-3A45-B203-82F07FD4625D}" name="بيانات" displayName="بيانات" ref="A1:F1720" totalsRowShown="0" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD50E3AB-70E9-3A45-B203-82F07FD4625D}" name="بيانات" displayName="بيانات" ref="A1:F1720" totalsRowShown="0" tableBorderDxfId="9">
   <autoFilter ref="A1:F1720" xr:uid="{FD50E3AB-70E9-3A45-B203-82F07FD4625D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4C1B7545-D9C6-F846-A4B7-44DF58D78B55}" name="عدد التصاريح من نسك" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{F9437492-72AC-5F4A-8032-1B9AB6BE0B1E}" name="نوع التصريح" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9212E875-86E3-5847-AF3A-B433B35A6754}" name="الجنس" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{5F44143B-D916-E945-ACAA-410E40AF1E89}" name="اليوم" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{4C1B7545-D9C6-F846-A4B7-44DF58D78B55}" name="عدد التصاريح من نسك" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{F9437492-72AC-5F4A-8032-1B9AB6BE0B1E}" name="نوع التصريح" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9212E875-86E3-5847-AF3A-B433B35A6754}" name="الجنس" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5F44143B-D916-E945-ACAA-410E40AF1E89}" name="اليوم" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{50EB09A5-5640-F149-8CBE-4A579958C419}" name="الشهر"/>
     <tableColumn id="6" xr3:uid="{1115D2B1-1EA5-7C43-9E78-0031DDA82A87}" name="اليوم "/>
   </tableColumns>
@@ -79258,10 +80387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9C2E9-AEC7-B846-8B5B-5875880BA455}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B31" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -79282,7 +80411,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2">
         <v>4964037</v>
       </c>
     </row>
@@ -79290,7 +80419,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3">
         <v>4930131</v>
       </c>
     </row>
@@ -79298,7 +80427,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4">
         <v>21834898</v>
       </c>
     </row>
@@ -79306,7 +80435,7 @@
       <c r="A5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5">
         <v>31729066</v>
       </c>
     </row>
@@ -79330,7 +80459,7 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10">
         <v>13912823</v>
       </c>
     </row>
@@ -79338,7 +80467,7 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11">
         <v>17816243</v>
       </c>
     </row>
@@ -79346,13 +80475,125 @@
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12">
+        <v>31729066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="20">
+        <v>2426457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="20">
+        <v>1847215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" s="20">
+        <v>1647892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" s="20">
+        <v>2294234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>5</v>
+      </c>
+      <c r="B44" s="20">
+        <v>2429376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>6</v>
+      </c>
+      <c r="B45" s="20">
+        <v>2501259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>7</v>
+      </c>
+      <c r="B46" s="20">
+        <v>2655260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>8</v>
+      </c>
+      <c r="B47" s="20">
+        <v>3003168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>9</v>
+      </c>
+      <c r="B48" s="20">
+        <v>7479572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>10</v>
+      </c>
+      <c r="B49" s="20">
+        <v>2813663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>11</v>
+      </c>
+      <c r="B50" s="20">
+        <v>1596610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>12</v>
+      </c>
+      <c r="B51" s="20">
+        <v>1034360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" s="20">
         <v>31729066</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -79394,7 +80635,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4">
         <v>1896596</v>
       </c>
     </row>
@@ -79402,7 +80643,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5">
         <v>1226744</v>
       </c>
     </row>
@@ -79410,7 +80651,7 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>942147</v>
       </c>
     </row>
@@ -79418,7 +80659,7 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7">
         <v>1432825</v>
       </c>
     </row>
@@ -79426,7 +80667,7 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8">
         <v>1494170</v>
       </c>
     </row>
@@ -79434,7 +80675,7 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9">
         <v>1538829</v>
       </c>
     </row>
@@ -79442,7 +80683,7 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10">
         <v>1701044</v>
       </c>
     </row>
@@ -79450,7 +80691,7 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11">
         <v>2025399</v>
       </c>
     </row>
@@ -79458,7 +80699,7 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12">
         <v>6627488</v>
       </c>
     </row>
@@ -79466,7 +80707,7 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13">
         <v>2000123</v>
       </c>
     </row>
@@ -79474,7 +80715,7 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14">
         <v>757197</v>
       </c>
     </row>
@@ -79482,7 +80723,7 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15">
         <v>192336</v>
       </c>
     </row>
@@ -79490,7 +80731,7 @@
       <c r="A16" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16">
         <v>21834898</v>
       </c>
     </row>
@@ -79522,7 +80763,7 @@
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27">
         <v>2666321</v>
       </c>
     </row>
@@ -79530,7 +80771,7 @@
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28">
         <v>3961167</v>
       </c>
     </row>
@@ -79538,7 +80779,7 @@
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29">
         <v>6627488</v>
       </c>
     </row>
@@ -79570,13 +80811,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="16">
+      <c r="A40">
         <v>160304</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40">
         <v>19</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>30840.251412429378</v>
       </c>
     </row>
@@ -79619,18 +80860,18 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
         <v>4928307</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
         <v>4965861</v>
       </c>
     </row>
@@ -79638,7 +80879,7 @@
       <c r="A6" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>9894168</v>
       </c>
     </row>
@@ -79662,7 +80903,7 @@
       <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24">
         <v>272942</v>
       </c>
     </row>
@@ -79670,7 +80911,7 @@
       <c r="A25" s="2">
         <v>2</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25">
         <v>325763</v>
       </c>
     </row>
@@ -79678,7 +80919,7 @@
       <c r="A26" s="2">
         <v>3</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26">
         <v>360720</v>
       </c>
     </row>
@@ -79686,7 +80927,7 @@
       <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27">
         <v>423031</v>
       </c>
     </row>
@@ -79694,7 +80935,7 @@
       <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28">
         <v>461892</v>
       </c>
     </row>
@@ -79702,7 +80943,7 @@
       <c r="A29" s="2">
         <v>6</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29">
         <v>454186</v>
       </c>
     </row>
@@ -79710,7 +80951,7 @@
       <c r="A30" s="2">
         <v>7</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30">
         <v>458413</v>
       </c>
     </row>
@@ -79718,7 +80959,7 @@
       <c r="A31" s="2">
         <v>8</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31">
         <v>493973</v>
       </c>
     </row>
@@ -79726,7 +80967,7 @@
       <c r="A32" s="2">
         <v>9</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32">
         <v>427961</v>
       </c>
     </row>
@@ -79734,7 +80975,7 @@
       <c r="A33" s="2">
         <v>10</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33">
         <v>419219</v>
       </c>
     </row>
@@ -79742,7 +80983,7 @@
       <c r="A34" s="2">
         <v>11</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34">
         <v>431590</v>
       </c>
     </row>
@@ -79750,7 +80991,7 @@
       <c r="A35" s="2">
         <v>12</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35">
         <v>434347</v>
       </c>
     </row>
@@ -79758,7 +80999,7 @@
       <c r="A36" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36">
         <v>4964037</v>
       </c>
     </row>
@@ -79782,7 +81023,7 @@
       <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44">
         <v>256919</v>
       </c>
     </row>
@@ -79790,7 +81031,7 @@
       <c r="A45" s="2">
         <v>2</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45">
         <v>294708</v>
       </c>
     </row>
@@ -79798,7 +81039,7 @@
       <c r="A46" s="2">
         <v>3</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46">
         <v>345025</v>
       </c>
     </row>
@@ -79806,7 +81047,7 @@
       <c r="A47" s="2">
         <v>4</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47">
         <v>438378</v>
       </c>
     </row>
@@ -79814,7 +81055,7 @@
       <c r="A48" s="2">
         <v>5</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48">
         <v>473314</v>
       </c>
     </row>
@@ -79822,7 +81063,7 @@
       <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49">
         <v>508244</v>
       </c>
     </row>
@@ -79830,7 +81071,7 @@
       <c r="A50" s="2">
         <v>7</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50">
         <v>495803</v>
       </c>
     </row>
@@ -79838,7 +81079,7 @@
       <c r="A51" s="2">
         <v>8</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51">
         <v>483796</v>
       </c>
     </row>
@@ -79846,7 +81087,7 @@
       <c r="A52" s="2">
         <v>9</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52">
         <v>424123</v>
       </c>
     </row>
@@ -79854,7 +81095,7 @@
       <c r="A53" s="2">
         <v>10</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53">
         <v>394321</v>
       </c>
     </row>
@@ -79862,7 +81103,7 @@
       <c r="A54" s="2">
         <v>11</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54">
         <v>407823</v>
       </c>
     </row>
@@ -79870,7 +81111,7 @@
       <c r="A55" s="2">
         <v>12</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55">
         <v>407677</v>
       </c>
     </row>
@@ -79878,7 +81119,7 @@
       <c r="A56" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56">
         <v>4930131</v>
       </c>
     </row>
@@ -79902,13 +81143,13 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="16">
+      <c r="A64">
         <v>18493</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>11411.579310344827</v>
       </c>
     </row>
@@ -79932,13 +81173,13 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="16">
+      <c r="A69">
         <v>18759</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>8559.2552083333339</v>
       </c>
     </row>
@@ -79952,13 +81193,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432F6F5E-BC02-8440-BDD1-C2CB23A46FF9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" rightToLeft="1" tabSelected="1" topLeftCell="A15" zoomScale="58" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" rightToLeft="1" topLeftCell="A19" zoomScale="58" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
